--- a/HaierMDM/2015年6月15日印度供应商增加1100、1200和1400账户组供应商的修改权限/新建 Microsoft Excel 工作表.xlsx
+++ b/HaierMDM/2015年6月15日印度供应商增加1100、1200和1400账户组供应商的修改权限/新建 Microsoft Excel 工作表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="增加业务编码" sheetId="1" r:id="rId1"/>
@@ -5269,8 +5269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -79223,8 +79223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
